--- a/FretCalculator.xlsx
+++ b/FretCalculator.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28020"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://umainesystem-my.sharepoint.com/personal/christopher_laliberte_maine_edu/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris.laliberte\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA362B23-9C62-44BA-8795-CF88A5D74F5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A790EA84-EC04-4437-BA5A-ED946672657B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{FEDA7B21-4B97-43E1-B555-CD67C0BE0FE8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{FEDA7B21-4B97-43E1-B555-CD67C0BE0FE8}"/>
   </bookViews>
   <sheets>
     <sheet name="Calculation" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="94">
   <si>
     <t>7 (A1)</t>
   </si>
@@ -313,6 +313,12 @@
   </si>
   <si>
     <t>E7</t>
+  </si>
+  <si>
+    <t>G0</t>
+  </si>
+  <si>
+    <t>G#0</t>
   </si>
 </sst>
 </file>
@@ -322,7 +328,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -381,7 +387,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -397,9 +403,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -749,87 +752,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{178BB7E5-2471-4924-ABC3-D774005D9BB6}">
-  <dimension ref="A1:AD27"/>
+  <dimension ref="A1:X27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X5" sqref="X5:X6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U32" sqref="U32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
-      <c r="B1" s="12" t="s">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12" t="s">
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12" t="s">
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12" t="s">
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12" t="s">
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12" t="s">
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12" t="s">
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="AD1" s="1" t="s">
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="X1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -838,7 +841,7 @@
       <c r="F2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>10</v>
       </c>
       <c r="H2" s="4" t="s">
@@ -847,7 +850,7 @@
       <c r="I2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K2" s="4" t="s">
@@ -856,7 +859,7 @@
       <c r="L2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="7" t="s">
         <v>10</v>
       </c>
       <c r="N2" s="4" t="s">
@@ -865,7 +868,7 @@
       <c r="O2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="P2" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="4" t="s">
@@ -874,7 +877,7 @@
       <c r="R2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="S2" s="7" t="s">
         <v>10</v>
       </c>
       <c r="T2" s="4" t="s">
@@ -883,79 +886,79 @@
       <c r="U2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="V2" s="8" t="s">
+      <c r="V2" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="5">
         <v>27</v>
       </c>
-      <c r="C3" s="7">
-        <v>110</v>
-      </c>
-      <c r="D3" s="9" t="s">
+      <c r="C3" s="3">
+        <v>55</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="4">
         <v>26.625</v>
       </c>
-      <c r="F3" s="7">
-        <v>164.81</v>
-      </c>
-      <c r="G3" s="10" t="s">
+      <c r="F3" s="3">
+        <v>82.41</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>13</v>
       </c>
       <c r="H3" s="5">
         <v>26.25</v>
       </c>
-      <c r="I3" s="7">
-        <v>220</v>
-      </c>
-      <c r="J3" s="10" t="s">
+      <c r="I3" s="3">
+        <v>110</v>
+      </c>
+      <c r="J3" s="9" t="s">
         <v>14</v>
       </c>
       <c r="K3" s="4">
         <v>25.875</v>
       </c>
-      <c r="L3" s="7">
-        <v>293.66000000000003</v>
-      </c>
-      <c r="M3" s="10" t="s">
+      <c r="L3" s="3">
+        <v>146.83000000000001</v>
+      </c>
+      <c r="M3" s="9" t="s">
         <v>15</v>
       </c>
       <c r="N3" s="5">
         <v>25.5</v>
       </c>
-      <c r="O3" s="7">
-        <v>392</v>
-      </c>
-      <c r="P3" s="10" t="s">
+      <c r="O3" s="3">
+        <v>196</v>
+      </c>
+      <c r="P3" s="9" t="s">
         <v>16</v>
       </c>
       <c r="Q3" s="4">
         <v>25.125</v>
       </c>
-      <c r="R3" s="7">
-        <v>493.88</v>
-      </c>
-      <c r="S3" s="10" t="s">
+      <c r="R3" s="3">
+        <v>246.94</v>
+      </c>
+      <c r="S3" s="9" t="s">
         <v>17</v>
       </c>
       <c r="T3" s="4">
         <v>24.75</v>
       </c>
-      <c r="U3" s="7">
-        <v>659.25</v>
-      </c>
-      <c r="V3" s="10" t="s">
+      <c r="U3" s="3">
+        <v>329.63</v>
+      </c>
+      <c r="V3" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -963,374 +966,374 @@
         <f>($B$3*$C$3)/C4</f>
         <v>25.484812081688688</v>
       </c>
-      <c r="C4" s="7">
-        <v>116.54</v>
-      </c>
-      <c r="D4" s="9" t="s">
+      <c r="C4" s="3">
+        <v>58.27</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E4" s="5">
         <f>($E$3*$F$3)/F4</f>
-        <v>25.130669778363206</v>
-      </c>
-      <c r="F4" s="7">
-        <v>174.61</v>
-      </c>
-      <c r="G4" s="10" t="s">
+        <v>25.13075535448402</v>
+      </c>
+      <c r="F4" s="3">
+        <v>87.31</v>
+      </c>
+      <c r="G4" s="9" t="s">
         <v>20</v>
       </c>
       <c r="H4" s="5">
         <f>($H$3*$I$3)/I4</f>
         <v>24.776900634975114</v>
       </c>
-      <c r="I4" s="7">
-        <v>233.08</v>
-      </c>
-      <c r="J4" s="10" t="s">
+      <c r="I4" s="3">
+        <v>116.54</v>
+      </c>
+      <c r="J4" s="9" t="s">
         <v>21</v>
       </c>
       <c r="K4" s="5">
         <f>($K$3*$L$3)/L4</f>
-        <v>24.422114550188027</v>
-      </c>
-      <c r="L4" s="7">
-        <v>311.13</v>
-      </c>
-      <c r="M4" s="10" t="s">
+        <v>24.422899524299307</v>
+      </c>
+      <c r="L4" s="3">
+        <v>155.56</v>
+      </c>
+      <c r="M4" s="9" t="s">
         <v>22</v>
       </c>
       <c r="N4" s="5">
         <f>($N$3*$O$3)/O4</f>
         <v>24.069347459667711</v>
       </c>
-      <c r="O4" s="7">
-        <v>415.3</v>
-      </c>
-      <c r="P4" s="10" t="s">
+      <c r="O4" s="3">
+        <v>207.65</v>
+      </c>
+      <c r="P4" s="9" t="s">
         <v>23</v>
       </c>
       <c r="Q4" s="5">
         <f>($Q$3*$R$3)/R4</f>
-        <v>23.714734830387005</v>
-      </c>
-      <c r="R4" s="7">
-        <v>523.25</v>
-      </c>
-      <c r="S4" s="10" t="s">
+        <v>23.714281619080381</v>
+      </c>
+      <c r="R4" s="3">
+        <v>261.63</v>
+      </c>
+      <c r="S4" s="9" t="s">
         <v>24</v>
       </c>
       <c r="T4" s="5">
         <f>($T$3*$U$3)/U4</f>
-        <v>23.360589725968559</v>
-      </c>
-      <c r="U4" s="7">
-        <v>698.46</v>
-      </c>
-      <c r="V4" s="10" t="s">
+        <v>23.360944076969332</v>
+      </c>
+      <c r="U4" s="3">
+        <v>349.23</v>
+      </c>
+      <c r="V4" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>2</v>
       </c>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B27" si="0">($B$3*$C$3)/C5</f>
-        <v>24.054426176399126</v>
-      </c>
-      <c r="C5" s="7">
-        <v>123.47</v>
-      </c>
-      <c r="D5" s="9" t="s">
+        <v>24.052478134110785</v>
+      </c>
+      <c r="C5" s="3">
+        <v>61.74</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>26</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ref="E5:E27" si="1">($E$3*$F$3)/F5</f>
-        <v>23.719277027027026</v>
-      </c>
-      <c r="F5" s="7">
-        <v>185</v>
-      </c>
-      <c r="G5" s="10" t="s">
+        <v>23.720716216216214</v>
+      </c>
+      <c r="F5" s="3">
+        <v>92.5</v>
+      </c>
+      <c r="G5" s="9" t="s">
         <v>27</v>
       </c>
       <c r="H5" s="5">
         <f t="shared" ref="H5:H27" si="2">($H$3*$I$3)/I5</f>
         <v>23.386247671499149</v>
       </c>
-      <c r="I5" s="7">
-        <v>246.94</v>
-      </c>
-      <c r="J5" s="10" t="s">
+      <c r="I5" s="3">
+        <v>123.47</v>
+      </c>
+      <c r="J5" s="9" t="s">
         <v>28</v>
       </c>
       <c r="K5" s="5">
         <f t="shared" ref="K5:K27" si="3">($K$3*$L$3)/L5</f>
-        <v>23.051459211843582</v>
-      </c>
-      <c r="L5" s="7">
-        <v>329.63</v>
-      </c>
-      <c r="M5" s="10" t="s">
+        <v>23.052158546204723</v>
+      </c>
+      <c r="L5" s="3">
+        <v>164.81</v>
+      </c>
+      <c r="M5" s="9" t="s">
         <v>29</v>
       </c>
       <c r="N5" s="5">
         <f t="shared" ref="N5:N27" si="4">($N$3*$O$3)/O5</f>
         <v>22.718181818181819</v>
       </c>
-      <c r="O5" s="7">
-        <v>440</v>
-      </c>
-      <c r="P5" s="10" t="s">
+      <c r="O5" s="3">
+        <v>220</v>
+      </c>
+      <c r="P5" s="9" t="s">
         <v>30</v>
       </c>
       <c r="Q5" s="5">
         <f t="shared" ref="Q5:Q27" si="5">($Q$3*$R$3)/R5</f>
-        <v>22.383489366307703</v>
-      </c>
-      <c r="R5" s="7">
-        <v>554.37</v>
-      </c>
-      <c r="S5" s="10" t="s">
+        <v>22.383893138033049</v>
+      </c>
+      <c r="R5" s="3">
+        <v>277.18</v>
+      </c>
+      <c r="S5" s="9" t="s">
         <v>31</v>
       </c>
       <c r="T5" s="5">
         <f t="shared" ref="T5:T27" si="6">($T$3*$U$3)/U5</f>
-        <v>22.049537831592318</v>
-      </c>
-      <c r="U5" s="7">
-        <v>739.99</v>
-      </c>
-      <c r="V5" s="10" t="s">
+        <v>22.050170274872293</v>
+      </c>
+      <c r="U5" s="3">
+        <v>369.99</v>
+      </c>
+      <c r="V5" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>3</v>
       </c>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
-        <v>22.704686186071402</v>
-      </c>
-      <c r="C6" s="7">
-        <v>130.81</v>
-      </c>
-      <c r="D6" s="9" t="s">
+        <v>22.702950619171382</v>
+      </c>
+      <c r="C6" s="3">
+        <v>65.41</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>33</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" si="1"/>
-        <v>22.388093112244896</v>
-      </c>
-      <c r="F6" s="7">
-        <v>196</v>
-      </c>
-      <c r="G6" s="10" t="s">
+        <v>22.389451530612241</v>
+      </c>
+      <c r="F6" s="3">
+        <v>98</v>
+      </c>
+      <c r="G6" s="9" t="s">
         <v>34</v>
       </c>
       <c r="H6" s="5">
         <f t="shared" si="2"/>
-        <v>22.073156748079349</v>
-      </c>
-      <c r="I6" s="7">
-        <v>261.63</v>
-      </c>
-      <c r="J6" s="10" t="s">
+        <v>22.07400045868053</v>
+      </c>
+      <c r="I6" s="3">
+        <v>130.81</v>
+      </c>
+      <c r="J6" s="9" t="s">
         <v>35</v>
       </c>
       <c r="K6" s="5">
         <f t="shared" si="3"/>
-        <v>21.757731294562323</v>
-      </c>
-      <c r="L6" s="7">
-        <v>349.23</v>
-      </c>
-      <c r="M6" s="10" t="s">
+        <v>21.758354332512457</v>
+      </c>
+      <c r="L6" s="3">
+        <v>174.61</v>
+      </c>
+      <c r="M6" s="9" t="s">
         <v>36</v>
       </c>
       <c r="N6" s="5">
         <f t="shared" si="4"/>
         <v>21.443281276814826</v>
       </c>
-      <c r="O6" s="7">
-        <v>466.16</v>
-      </c>
-      <c r="P6" s="10" t="s">
+      <c r="O6" s="3">
+        <v>233.08</v>
+      </c>
+      <c r="P6" s="9" t="s">
         <v>37</v>
       </c>
       <c r="Q6" s="5">
         <f t="shared" si="5"/>
-        <v>21.127364513987025</v>
-      </c>
-      <c r="R6" s="7">
-        <v>587.33000000000004</v>
-      </c>
-      <c r="S6" s="10" t="s">
+        <v>21.127724238915754</v>
+      </c>
+      <c r="R6" s="3">
+        <v>293.66000000000003</v>
+      </c>
+      <c r="S6" s="9" t="s">
         <v>38</v>
       </c>
       <c r="T6" s="5">
         <f t="shared" si="6"/>
-        <v>20.812047985305934</v>
-      </c>
-      <c r="U6" s="7">
-        <v>783.99</v>
-      </c>
-      <c r="V6" s="10" t="s">
+        <v>20.812098214285715</v>
+      </c>
+      <c r="U6" s="3">
+        <v>392</v>
+      </c>
+      <c r="V6" s="9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>4</v>
       </c>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
-        <v>21.430117613103398</v>
-      </c>
-      <c r="C7" s="7">
-        <v>138.59</v>
-      </c>
-      <c r="D7" s="9" t="s">
+        <v>21.428571428571431</v>
+      </c>
+      <c r="C7" s="3">
+        <v>69.3</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>40</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" si="1"/>
-        <v>21.132031061882977</v>
-      </c>
-      <c r="F7" s="7">
-        <v>207.65</v>
-      </c>
-      <c r="G7" s="10" t="s">
+        <v>21.132295579312334</v>
+      </c>
+      <c r="F7" s="3">
+        <v>103.83</v>
+      </c>
+      <c r="G7" s="9" t="s">
         <v>41</v>
       </c>
       <c r="H7" s="5">
         <f t="shared" si="2"/>
         <v>20.834836568294971</v>
       </c>
-      <c r="I7" s="7">
-        <v>277.18</v>
-      </c>
-      <c r="J7" s="10" t="s">
+      <c r="I7" s="3">
+        <v>138.59</v>
+      </c>
+      <c r="J7" s="9" t="s">
         <v>42</v>
       </c>
       <c r="K7" s="5">
         <f t="shared" si="3"/>
-        <v>20.536913159815132</v>
-      </c>
-      <c r="L7" s="7">
-        <v>369.99</v>
-      </c>
-      <c r="M7" s="10" t="s">
+        <v>20.536358108108107</v>
+      </c>
+      <c r="L7" s="3">
+        <v>185</v>
+      </c>
+      <c r="M7" s="9" t="s">
         <v>43</v>
       </c>
       <c r="N7" s="5">
         <f t="shared" si="4"/>
         <v>20.239734348424719</v>
       </c>
-      <c r="O7" s="7">
-        <v>493.88</v>
-      </c>
-      <c r="P7" s="10" t="s">
+      <c r="O7" s="3">
+        <v>246.94</v>
+      </c>
+      <c r="P7" s="9" t="s">
         <v>17</v>
       </c>
       <c r="Q7" s="5">
         <f t="shared" si="5"/>
-        <v>19.9417195660908</v>
-      </c>
-      <c r="R7" s="7">
-        <v>622.25</v>
-      </c>
-      <c r="S7" s="10" t="s">
+        <v>19.941399093626458</v>
+      </c>
+      <c r="R7" s="3">
+        <v>311.13</v>
+      </c>
+      <c r="S7" s="9" t="s">
         <v>44</v>
       </c>
       <c r="T7" s="5">
         <f t="shared" si="6"/>
-        <v>19.643921334922528</v>
-      </c>
-      <c r="U7" s="7">
-        <v>830.61</v>
-      </c>
-      <c r="V7" s="10" t="s">
+        <v>19.644455815073439</v>
+      </c>
+      <c r="U7" s="3">
+        <v>415.3</v>
+      </c>
+      <c r="V7" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>5</v>
       </c>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
-        <v>20.227473949465367</v>
-      </c>
-      <c r="C8" s="7">
-        <v>146.83000000000001</v>
-      </c>
-      <c r="D8" s="9" t="s">
+        <v>20.226096431490056</v>
+      </c>
+      <c r="C8" s="3">
+        <v>73.42</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>46</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" si="1"/>
-        <v>19.945755681818181</v>
-      </c>
-      <c r="F8" s="7">
-        <v>220</v>
-      </c>
-      <c r="G8" s="10" t="s">
+        <v>19.946965909090906</v>
+      </c>
+      <c r="F8" s="3">
+        <v>110</v>
+      </c>
+      <c r="G8" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H8" s="5">
         <f t="shared" si="2"/>
         <v>19.665599673091329</v>
       </c>
-      <c r="I8" s="7">
-        <v>293.66000000000003</v>
-      </c>
-      <c r="J8" s="10" t="s">
+      <c r="I8" s="3">
+        <v>146.83000000000001</v>
+      </c>
+      <c r="J8" s="9" t="s">
         <v>15</v>
       </c>
       <c r="K8" s="5">
         <f t="shared" si="3"/>
         <v>19.383807397959185</v>
       </c>
-      <c r="L8" s="7">
-        <v>392</v>
-      </c>
-      <c r="M8" s="10" t="s">
+      <c r="L8" s="3">
+        <v>196</v>
+      </c>
+      <c r="M8" s="9" t="s">
         <v>16</v>
       </c>
       <c r="N8" s="5">
         <f t="shared" si="4"/>
-        <v>19.103678929765888</v>
-      </c>
-      <c r="O8" s="7">
-        <v>523.25</v>
-      </c>
-      <c r="P8" s="10" t="s">
+        <v>19.103313840155945</v>
+      </c>
+      <c r="O8" s="3">
+        <v>261.63</v>
+      </c>
+      <c r="P8" s="9" t="s">
         <v>24</v>
       </c>
       <c r="Q8" s="5">
         <f t="shared" si="5"/>
-        <v>18.82250284414107</v>
-      </c>
-      <c r="R8" s="7">
-        <v>659.25</v>
-      </c>
-      <c r="S8" s="10" t="s">
+        <v>18.822217334587265</v>
+      </c>
+      <c r="R8" s="3">
+        <v>329.63</v>
+      </c>
+      <c r="S8" s="9" t="s">
         <v>18</v>
       </c>
       <c r="T8" s="5">
         <f t="shared" si="6"/>
-        <v>18.541406250000001</v>
-      </c>
-      <c r="U8" s="7">
-        <v>880</v>
-      </c>
-      <c r="V8" s="10" t="s">
+        <v>18.541687499999998</v>
+      </c>
+      <c r="U8" s="3">
+        <v>440</v>
+      </c>
+      <c r="V8" s="9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -1338,224 +1341,224 @@
         <f t="shared" si="0"/>
         <v>19.092311648238621</v>
       </c>
-      <c r="C9" s="7">
-        <v>155.56</v>
-      </c>
-      <c r="D9" s="9" t="s">
+      <c r="C9" s="3">
+        <v>77.78</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>48</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" si="1"/>
-        <v>18.826438347348549</v>
-      </c>
-      <c r="F9" s="7">
-        <v>233.08</v>
-      </c>
-      <c r="G9" s="10" t="s">
+        <v>18.8275806590012</v>
+      </c>
+      <c r="F9" s="3">
+        <v>116.54</v>
+      </c>
+      <c r="G9" s="9" t="s">
         <v>21</v>
       </c>
       <c r="H9" s="5">
         <f t="shared" si="2"/>
-        <v>18.561373059492816</v>
-      </c>
-      <c r="I9" s="7">
-        <v>311.13</v>
-      </c>
-      <c r="J9" s="10" t="s">
+        <v>18.561969658009772</v>
+      </c>
+      <c r="I9" s="3">
+        <v>155.56</v>
+      </c>
+      <c r="J9" s="9" t="s">
         <v>22</v>
       </c>
       <c r="K9" s="5">
         <f t="shared" si="3"/>
         <v>18.296297856970863</v>
       </c>
-      <c r="L9" s="7">
-        <v>415.3</v>
-      </c>
-      <c r="M9" s="10" t="s">
+      <c r="L9" s="3">
+        <v>207.65</v>
+      </c>
+      <c r="M9" s="9" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="5">
         <f t="shared" si="4"/>
-        <v>18.031278748850045</v>
-      </c>
-      <c r="O9" s="7">
-        <v>554.37</v>
-      </c>
-      <c r="P9" s="10" t="s">
+        <v>18.031604011833466</v>
+      </c>
+      <c r="O9" s="3">
+        <v>277.18</v>
+      </c>
+      <c r="P9" s="9" t="s">
         <v>31</v>
       </c>
       <c r="Q9" s="5">
         <f t="shared" si="5"/>
         <v>17.765849153852763</v>
       </c>
-      <c r="R9" s="7">
-        <v>698.46</v>
-      </c>
-      <c r="S9" s="10" t="s">
+      <c r="R9" s="3">
+        <v>349.23</v>
+      </c>
+      <c r="S9" s="9" t="s">
         <v>25</v>
       </c>
       <c r="T9" s="5">
         <f t="shared" si="6"/>
-        <v>17.500710585307775</v>
-      </c>
-      <c r="U9" s="7">
-        <v>932.33</v>
-      </c>
-      <c r="V9" s="10" t="s">
+        <v>17.501163763514672</v>
+      </c>
+      <c r="U9" s="3">
+        <v>466.16</v>
+      </c>
+      <c r="V9" s="9" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>7</v>
       </c>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
-        <v>18.02075116801165</v>
-      </c>
-      <c r="C10" s="7">
-        <v>164.81</v>
-      </c>
-      <c r="D10" s="9" t="s">
+        <v>18.019657808518385</v>
+      </c>
+      <c r="C10" s="3">
+        <v>82.41</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" si="1"/>
-        <v>17.769766947436622</v>
-      </c>
-      <c r="F10" s="7">
-        <v>246.94</v>
-      </c>
-      <c r="G10" s="10" t="s">
+        <v>17.770845144569531</v>
+      </c>
+      <c r="F10" s="3">
+        <v>123.47</v>
+      </c>
+      <c r="G10" s="9" t="s">
         <v>28</v>
       </c>
       <c r="H10" s="5">
         <f t="shared" si="2"/>
-        <v>17.519643236355915</v>
-      </c>
-      <c r="I10" s="7">
-        <v>329.63</v>
-      </c>
-      <c r="J10" s="10" t="s">
+        <v>17.520174746677991</v>
+      </c>
+      <c r="I10" s="3">
+        <v>164.81</v>
+      </c>
+      <c r="J10" s="9" t="s">
         <v>29</v>
       </c>
       <c r="K10" s="5">
         <f t="shared" si="3"/>
         <v>17.26921022727273</v>
       </c>
-      <c r="L10" s="7">
-        <v>440</v>
-      </c>
-      <c r="M10" s="10" t="s">
+      <c r="L10" s="3">
+        <v>220</v>
+      </c>
+      <c r="M10" s="9" t="s">
         <v>30</v>
       </c>
       <c r="N10" s="5">
         <f t="shared" si="4"/>
-        <v>17.019392845589362</v>
-      </c>
-      <c r="O10" s="7">
-        <v>587.33000000000004</v>
-      </c>
-      <c r="P10" s="10" t="s">
+        <v>17.019682626166315</v>
+      </c>
+      <c r="O10" s="3">
+        <v>293.66000000000003</v>
+      </c>
+      <c r="P10" s="9" t="s">
         <v>38</v>
       </c>
       <c r="Q10" s="5">
         <f t="shared" si="5"/>
-        <v>16.768787416046163</v>
-      </c>
-      <c r="R10" s="7">
-        <v>739.99</v>
-      </c>
-      <c r="S10" s="10" t="s">
+        <v>16.769014027406147</v>
+      </c>
+      <c r="R10" s="3">
+        <v>369.99</v>
+      </c>
+      <c r="S10" s="9" t="s">
         <v>32</v>
       </c>
       <c r="T10" s="5">
         <f t="shared" si="6"/>
-        <v>16.518458244328134</v>
-      </c>
-      <c r="U10" s="7">
-        <v>987.77</v>
-      </c>
-      <c r="V10" s="10" t="s">
+        <v>16.518876042763424</v>
+      </c>
+      <c r="U10" s="3">
+        <v>493.88</v>
+      </c>
+      <c r="V10" s="9" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>8</v>
       </c>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
-        <v>17.009335089628312</v>
-      </c>
-      <c r="C11" s="7">
-        <v>174.61</v>
-      </c>
-      <c r="D11" s="9" t="s">
+        <v>17.008361012484251</v>
+      </c>
+      <c r="C11" s="3">
+        <v>87.31</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" si="1"/>
-        <v>16.772030157092075</v>
-      </c>
-      <c r="F11" s="7">
-        <v>261.63</v>
-      </c>
-      <c r="G11" s="10" t="s">
+        <v>16.773688938154574</v>
+      </c>
+      <c r="F11" s="3">
+        <v>130.81</v>
+      </c>
+      <c r="G11" s="9" t="s">
         <v>35</v>
       </c>
       <c r="H11" s="5">
         <f t="shared" si="2"/>
-        <v>16.536380036079375</v>
-      </c>
-      <c r="I11" s="7">
-        <v>349.23</v>
-      </c>
-      <c r="J11" s="10" t="s">
+        <v>16.536853559360861</v>
+      </c>
+      <c r="I11" s="3">
+        <v>174.61</v>
+      </c>
+      <c r="J11" s="9" t="s">
         <v>36</v>
       </c>
       <c r="K11" s="5">
         <f t="shared" si="3"/>
         <v>16.300095460785997</v>
       </c>
-      <c r="L11" s="7">
-        <v>466.16</v>
-      </c>
-      <c r="M11" s="10" t="s">
+      <c r="L11" s="3">
+        <v>233.08</v>
+      </c>
+      <c r="M11" s="9" t="s">
         <v>37</v>
       </c>
       <c r="N11" s="5">
         <f t="shared" si="4"/>
-        <v>16.064282844515869</v>
-      </c>
-      <c r="O11" s="7">
-        <v>622.25</v>
-      </c>
-      <c r="P11" s="10" t="s">
+        <v>16.064024684215603</v>
+      </c>
+      <c r="O11" s="3">
+        <v>311.13</v>
+      </c>
+      <c r="P11" s="9" t="s">
         <v>44</v>
       </c>
       <c r="Q11" s="5">
         <f t="shared" si="5"/>
-        <v>15.827669995790764</v>
-      </c>
-      <c r="R11" s="7">
-        <v>783.99</v>
-      </c>
-      <c r="S11" s="10" t="s">
+        <v>15.827468112244899</v>
+      </c>
+      <c r="R11" s="3">
+        <v>392</v>
+      </c>
+      <c r="S11" s="9" t="s">
         <v>39</v>
       </c>
       <c r="T11" s="5">
         <f t="shared" si="6"/>
-        <v>15.591435738174869</v>
-      </c>
-      <c r="U11" s="7">
-        <v>1046.5</v>
-      </c>
-      <c r="V11" s="10" t="s">
+        <v>15.591672240802675</v>
+      </c>
+      <c r="U11" s="3">
+        <v>523.25</v>
+      </c>
+      <c r="V11" s="9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -1563,74 +1566,74 @@
         <f t="shared" si="0"/>
         <v>16.054054054054053</v>
       </c>
-      <c r="C12" s="7">
-        <v>185</v>
-      </c>
-      <c r="D12" s="9" t="s">
+      <c r="C12" s="3">
+        <v>92.5</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>27</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" si="1"/>
-        <v>15.831107042355148</v>
-      </c>
-      <c r="F12" s="7">
-        <v>277.18</v>
-      </c>
-      <c r="G12" s="10" t="s">
+        <v>15.832067609495633</v>
+      </c>
+      <c r="F12" s="3">
+        <v>138.59</v>
+      </c>
+      <c r="G12" s="9" t="s">
         <v>42</v>
       </c>
       <c r="H12" s="5">
         <f t="shared" si="2"/>
-        <v>15.608529960269196</v>
-      </c>
-      <c r="I12" s="7">
-        <v>369.99</v>
-      </c>
-      <c r="J12" s="10" t="s">
+        <v>15.608108108108109</v>
+      </c>
+      <c r="I12" s="3">
+        <v>185</v>
+      </c>
+      <c r="J12" s="9" t="s">
         <v>43</v>
       </c>
       <c r="K12" s="5">
         <f t="shared" si="3"/>
         <v>15.385220093949949</v>
       </c>
-      <c r="L12" s="7">
-        <v>493.88</v>
-      </c>
-      <c r="M12" s="10" t="s">
+      <c r="L12" s="3">
+        <v>246.94</v>
+      </c>
+      <c r="M12" s="9" t="s">
         <v>17</v>
       </c>
       <c r="N12" s="5">
         <f t="shared" si="4"/>
-        <v>15.16268486916951</v>
-      </c>
-      <c r="O12" s="7">
-        <v>659.25</v>
-      </c>
-      <c r="P12" s="10" t="s">
+        <v>15.16245487364621</v>
+      </c>
+      <c r="O12" s="3">
+        <v>329.63</v>
+      </c>
+      <c r="P12" s="9" t="s">
         <v>18</v>
       </c>
       <c r="Q12" s="5">
         <f t="shared" si="5"/>
-        <v>14.939303644309604</v>
-      </c>
-      <c r="R12" s="7">
-        <v>830.61</v>
-      </c>
-      <c r="S12" s="10" t="s">
+        <v>14.93948350589935</v>
+      </c>
+      <c r="R12" s="3">
+        <v>415.3</v>
+      </c>
+      <c r="S12" s="9" t="s">
         <v>45</v>
       </c>
       <c r="T12" s="5">
         <f t="shared" si="6"/>
-        <v>14.716330847005132</v>
-      </c>
-      <c r="U12" s="7">
-        <v>1108.73</v>
-      </c>
-      <c r="V12" s="10" t="s">
+        <v>14.716421343146273</v>
+      </c>
+      <c r="U12" s="3">
+        <v>554.37</v>
+      </c>
+      <c r="V12" s="9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -1638,149 +1641,149 @@
         <f t="shared" si="0"/>
         <v>15.153061224489797</v>
       </c>
-      <c r="C13" s="7">
-        <v>196</v>
-      </c>
-      <c r="D13" s="9" t="s">
+      <c r="C13" s="3">
+        <v>98</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>34</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" si="1"/>
-        <v>14.942676053939929</v>
-      </c>
-      <c r="F13" s="7">
-        <v>293.66000000000003</v>
-      </c>
-      <c r="G13" s="10" t="s">
+        <v>14.943582714704077</v>
+      </c>
+      <c r="F13" s="3">
+        <v>146.83000000000001</v>
+      </c>
+      <c r="G13" s="9" t="s">
         <v>15</v>
       </c>
       <c r="H13" s="5">
         <f t="shared" si="2"/>
         <v>14.732142857142858</v>
       </c>
-      <c r="I13" s="7">
-        <v>392</v>
-      </c>
-      <c r="J13" s="10" t="s">
+      <c r="I13" s="3">
+        <v>196</v>
+      </c>
+      <c r="J13" s="9" t="s">
         <v>16</v>
       </c>
       <c r="K13" s="5">
         <f t="shared" si="3"/>
-        <v>14.521648351648352</v>
-      </c>
-      <c r="L13" s="7">
-        <v>523.25</v>
-      </c>
-      <c r="M13" s="10" t="s">
+        <v>14.521370829033369</v>
+      </c>
+      <c r="L13" s="3">
+        <v>261.63</v>
+      </c>
+      <c r="M13" s="9" t="s">
         <v>24</v>
       </c>
       <c r="N13" s="5">
         <f t="shared" si="4"/>
         <v>14.311485267588694</v>
       </c>
-      <c r="O13" s="7">
-        <v>698.46</v>
-      </c>
-      <c r="P13" s="10" t="s">
+      <c r="O13" s="3">
+        <v>349.23</v>
+      </c>
+      <c r="P13" s="9" t="s">
         <v>25</v>
       </c>
       <c r="Q13" s="5">
         <f t="shared" si="5"/>
         <v>14.100835227272729</v>
       </c>
-      <c r="R13" s="7">
-        <v>880</v>
-      </c>
-      <c r="S13" s="10" t="s">
+      <c r="R13" s="3">
+        <v>440</v>
+      </c>
+      <c r="S13" s="9" t="s">
         <v>47</v>
       </c>
       <c r="T13" s="5">
         <f t="shared" si="6"/>
-        <v>13.890349122299218</v>
-      </c>
-      <c r="U13" s="7">
-        <v>1174.6600000000001</v>
-      </c>
-      <c r="V13" s="10" t="s">
+        <v>13.890559821565388</v>
+      </c>
+      <c r="U13" s="3">
+        <v>587.33000000000004</v>
+      </c>
+      <c r="V13" s="9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>11</v>
       </c>
       <c r="B14" s="5">
         <f t="shared" si="0"/>
-        <v>14.302913556465205</v>
-      </c>
-      <c r="C14" s="7">
-        <v>207.65</v>
-      </c>
-      <c r="D14" s="9" t="s">
+        <v>14.30222479052297</v>
+      </c>
+      <c r="C14" s="3">
+        <v>103.83</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>41</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" si="1"/>
-        <v>14.103642368141934</v>
-      </c>
-      <c r="F14" s="7">
-        <v>311.13</v>
-      </c>
-      <c r="G14" s="10" t="s">
+        <v>14.104951465672407</v>
+      </c>
+      <c r="F14" s="3">
+        <v>155.56</v>
+      </c>
+      <c r="G14" s="9" t="s">
         <v>22</v>
       </c>
       <c r="H14" s="5">
         <f t="shared" si="2"/>
         <v>13.905610402118949</v>
       </c>
-      <c r="I14" s="7">
-        <v>415.3</v>
-      </c>
-      <c r="J14" s="10" t="s">
+      <c r="I14" s="3">
+        <v>207.65</v>
+      </c>
+      <c r="J14" s="9" t="s">
         <v>23</v>
       </c>
       <c r="K14" s="5">
         <f t="shared" si="3"/>
-        <v>13.706464094377402</v>
-      </c>
-      <c r="L14" s="7">
-        <v>554.37</v>
-      </c>
-      <c r="M14" s="10" t="s">
+        <v>13.706711342809728</v>
+      </c>
+      <c r="L14" s="3">
+        <v>277.18</v>
+      </c>
+      <c r="M14" s="9" t="s">
         <v>31</v>
       </c>
       <c r="N14" s="5">
         <f t="shared" si="4"/>
-        <v>13.508290652576386</v>
-      </c>
-      <c r="O14" s="7">
-        <v>739.99</v>
-      </c>
-      <c r="P14" s="10" t="s">
+        <v>13.508473201978431</v>
+      </c>
+      <c r="O14" s="3">
+        <v>369.99</v>
+      </c>
+      <c r="P14" s="9" t="s">
         <v>32</v>
       </c>
       <c r="Q14" s="5">
         <f t="shared" si="5"/>
-        <v>13.309380798644257</v>
-      </c>
-      <c r="R14" s="7">
-        <v>932.33</v>
-      </c>
-      <c r="S14" s="10" t="s">
+        <v>13.3095235541445</v>
+      </c>
+      <c r="R14" s="3">
+        <v>466.16</v>
+      </c>
+      <c r="S14" s="9" t="s">
         <v>49</v>
       </c>
       <c r="T14" s="5">
         <f t="shared" si="6"/>
-        <v>13.110732336421563</v>
-      </c>
-      <c r="U14" s="7">
-        <v>1244.51</v>
-      </c>
-      <c r="V14" s="10" t="s">
+        <v>13.111036560867818</v>
+      </c>
+      <c r="U14" s="3">
+        <v>622.25</v>
+      </c>
+      <c r="V14" s="9" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -1788,74 +1791,74 @@
         <f t="shared" si="0"/>
         <v>13.5</v>
       </c>
-      <c r="C15" s="7">
-        <v>220</v>
-      </c>
-      <c r="D15" s="9" t="s">
+      <c r="C15" s="3">
+        <v>110</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" si="1"/>
-        <v>13.312096138094226</v>
-      </c>
-      <c r="F15" s="7">
-        <v>329.63</v>
-      </c>
-      <c r="G15" s="10" t="s">
+        <v>13.313307748316241</v>
+      </c>
+      <c r="F15" s="3">
+        <v>164.81</v>
+      </c>
+      <c r="G15" s="9" t="s">
         <v>29</v>
       </c>
       <c r="H15" s="5">
         <f t="shared" si="2"/>
         <v>13.125</v>
       </c>
-      <c r="I15" s="7">
-        <v>440</v>
-      </c>
-      <c r="J15" s="10" t="s">
+      <c r="I15" s="3">
+        <v>220</v>
+      </c>
+      <c r="J15" s="9" t="s">
         <v>30</v>
       </c>
       <c r="K15" s="5">
         <f t="shared" si="3"/>
-        <v>12.937279723494457</v>
-      </c>
-      <c r="L15" s="7">
-        <v>587.33000000000004</v>
-      </c>
-      <c r="M15" s="10" t="s">
+        <v>12.9375</v>
+      </c>
+      <c r="L15" s="3">
+        <v>293.66000000000003</v>
+      </c>
+      <c r="M15" s="9" t="s">
         <v>38</v>
       </c>
       <c r="N15" s="5">
         <f t="shared" si="4"/>
-        <v>12.750162629625377</v>
-      </c>
-      <c r="O15" s="7">
-        <v>783.99</v>
-      </c>
-      <c r="P15" s="10" t="s">
+        <v>12.75</v>
+      </c>
+      <c r="O15" s="3">
+        <v>392</v>
+      </c>
+      <c r="P15" s="9" t="s">
         <v>39</v>
       </c>
       <c r="Q15" s="5">
         <f t="shared" si="5"/>
-        <v>12.562372819583507</v>
-      </c>
-      <c r="R15" s="7">
-        <v>987.77</v>
-      </c>
-      <c r="S15" s="10" t="s">
+        <v>12.5625</v>
+      </c>
+      <c r="R15" s="3">
+        <v>493.88</v>
+      </c>
+      <c r="S15" s="9" t="s">
         <v>50</v>
       </c>
       <c r="T15" s="5">
         <f t="shared" si="6"/>
-        <v>12.374906144056549</v>
-      </c>
-      <c r="U15" s="7">
-        <v>1318.51</v>
-      </c>
-      <c r="V15" s="10" t="s">
+        <v>12.375187713310579</v>
+      </c>
+      <c r="U15" s="3">
+        <v>659.25</v>
+      </c>
+      <c r="V15" s="9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -1863,74 +1866,74 @@
         <f t="shared" si="0"/>
         <v>12.742406040844344</v>
       </c>
-      <c r="C16" s="7">
-        <v>233.08</v>
-      </c>
-      <c r="D16" s="9" t="s">
+      <c r="C16" s="3">
+        <v>116.54</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" si="1"/>
-        <v>12.564975088050854</v>
-      </c>
-      <c r="F16" s="7">
-        <v>349.23</v>
-      </c>
-      <c r="G16" s="10" t="s">
+        <v>12.566097302559989</v>
+      </c>
+      <c r="F16" s="3">
+        <v>174.61</v>
+      </c>
+      <c r="G16" s="9" t="s">
         <v>36</v>
       </c>
       <c r="H16" s="5">
         <f t="shared" si="2"/>
         <v>12.388450317487557</v>
       </c>
-      <c r="I16" s="7">
-        <v>466.16</v>
-      </c>
-      <c r="J16" s="10" t="s">
+      <c r="I16" s="3">
+        <v>233.08</v>
+      </c>
+      <c r="J16" s="9" t="s">
         <v>37</v>
       </c>
       <c r="K16" s="5">
         <f t="shared" si="3"/>
-        <v>12.21125351546806</v>
-      </c>
-      <c r="L16" s="7">
-        <v>622.25</v>
-      </c>
-      <c r="M16" s="10" t="s">
+        <v>12.211057275094014</v>
+      </c>
+      <c r="L16" s="3">
+        <v>311.13</v>
+      </c>
+      <c r="M16" s="9" t="s">
         <v>44</v>
       </c>
       <c r="N16" s="5">
         <f t="shared" si="4"/>
-        <v>12.034528840249937</v>
-      </c>
-      <c r="O16" s="7">
-        <v>830.61</v>
-      </c>
-      <c r="P16" s="10" t="s">
+        <v>12.034673729833855</v>
+      </c>
+      <c r="O16" s="3">
+        <v>415.3</v>
+      </c>
+      <c r="P16" s="9" t="s">
         <v>45</v>
       </c>
       <c r="Q16" s="5">
         <f t="shared" si="5"/>
         <v>11.857367415193503</v>
       </c>
-      <c r="R16" s="7">
-        <v>1046.5</v>
-      </c>
-      <c r="S16" s="10" t="s">
+      <c r="R16" s="3">
+        <v>523.25</v>
+      </c>
+      <c r="S16" s="9" t="s">
         <v>51</v>
       </c>
       <c r="T16" s="5">
         <f t="shared" si="6"/>
-        <v>11.680378478212626</v>
-      </c>
-      <c r="U16" s="7">
-        <v>1396.91</v>
-      </c>
-      <c r="V16" s="10" t="s">
+        <v>11.680472038484666</v>
+      </c>
+      <c r="U16" s="3">
+        <v>698.46</v>
+      </c>
+      <c r="V16" s="9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -1938,149 +1941,149 @@
         <f t="shared" si="0"/>
         <v>12.027213088199563</v>
       </c>
-      <c r="C17" s="7">
-        <v>246.94</v>
-      </c>
-      <c r="D17" s="9" t="s">
+      <c r="C17" s="3">
+        <v>123.47</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>28</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" si="1"/>
-        <v>11.859959052947376</v>
-      </c>
-      <c r="F17" s="7">
-        <v>369.99</v>
-      </c>
-      <c r="G17" s="10" t="s">
+        <v>11.860358108108107</v>
+      </c>
+      <c r="F17" s="3">
+        <v>185</v>
+      </c>
+      <c r="G17" s="9" t="s">
         <v>43</v>
       </c>
       <c r="H17" s="5">
         <f t="shared" si="2"/>
         <v>11.693123835749574</v>
       </c>
-      <c r="I17" s="7">
-        <v>493.88</v>
-      </c>
-      <c r="J17" s="10" t="s">
+      <c r="I17" s="3">
+        <v>246.94</v>
+      </c>
+      <c r="J17" s="9" t="s">
         <v>17</v>
       </c>
       <c r="K17" s="5">
         <f t="shared" si="3"/>
-        <v>11.525904436860069</v>
-      </c>
-      <c r="L17" s="7">
-        <v>659.25</v>
-      </c>
-      <c r="M17" s="10" t="s">
+        <v>11.525729605921791</v>
+      </c>
+      <c r="L17" s="3">
+        <v>329.63</v>
+      </c>
+      <c r="M17" s="9" t="s">
         <v>18</v>
       </c>
       <c r="N17" s="5">
         <f t="shared" si="4"/>
         <v>11.359090909090909</v>
       </c>
-      <c r="O17" s="7">
-        <v>880</v>
-      </c>
-      <c r="P17" s="10" t="s">
+      <c r="O17" s="3">
+        <v>440</v>
+      </c>
+      <c r="P17" s="9" t="s">
         <v>47</v>
       </c>
       <c r="Q17" s="5">
         <f t="shared" si="5"/>
-        <v>11.19184562517475</v>
-      </c>
-      <c r="R17" s="7">
-        <v>1108.73</v>
-      </c>
-      <c r="S17" s="10" t="s">
+        <v>11.191744683153852</v>
+      </c>
+      <c r="R17" s="3">
+        <v>554.37</v>
+      </c>
+      <c r="S17" s="9" t="s">
         <v>52</v>
       </c>
       <c r="T17" s="5">
         <f t="shared" si="6"/>
-        <v>11.024768915796159</v>
-      </c>
-      <c r="U17" s="7">
-        <v>1479.98</v>
-      </c>
-      <c r="V17" s="10" t="s">
+        <v>11.02493614778578</v>
+      </c>
+      <c r="U17" s="3">
+        <v>739.99</v>
+      </c>
+      <c r="V17" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>15</v>
       </c>
       <c r="B18" s="5">
         <f t="shared" si="0"/>
-        <v>11.351909184726523</v>
-      </c>
-      <c r="C18" s="7">
-        <v>261.63</v>
-      </c>
-      <c r="D18" s="9" t="s">
+        <v>11.352343093035701</v>
+      </c>
+      <c r="C18" s="3">
+        <v>130.81</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>35</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" si="1"/>
-        <v>11.194046556122448</v>
-      </c>
-      <c r="F18" s="7">
-        <v>392</v>
-      </c>
-      <c r="G18" s="10" t="s">
+        <v>11.194725765306121</v>
+      </c>
+      <c r="F18" s="3">
+        <v>196</v>
+      </c>
+      <c r="G18" s="9" t="s">
         <v>16</v>
       </c>
       <c r="H18" s="5">
         <f t="shared" si="2"/>
-        <v>11.036789297658864</v>
-      </c>
-      <c r="I18" s="7">
-        <v>523.25</v>
-      </c>
-      <c r="J18" s="10" t="s">
+        <v>11.036578374039674</v>
+      </c>
+      <c r="I18" s="3">
+        <v>261.63</v>
+      </c>
+      <c r="J18" s="9" t="s">
         <v>24</v>
       </c>
       <c r="K18" s="5">
         <f t="shared" si="3"/>
         <v>10.878865647281161</v>
       </c>
-      <c r="L18" s="7">
-        <v>698.46</v>
-      </c>
-      <c r="M18" s="10" t="s">
+      <c r="L18" s="3">
+        <v>349.23</v>
+      </c>
+      <c r="M18" s="9" t="s">
         <v>25</v>
       </c>
       <c r="N18" s="5">
         <f t="shared" si="4"/>
-        <v>10.721525640063067</v>
-      </c>
-      <c r="O18" s="7">
-        <v>932.33</v>
-      </c>
-      <c r="P18" s="10" t="s">
+        <v>10.721640638407413</v>
+      </c>
+      <c r="O18" s="3">
+        <v>466.16</v>
+      </c>
+      <c r="P18" s="9" t="s">
         <v>49</v>
       </c>
       <c r="Q18" s="5">
         <f t="shared" si="5"/>
         <v>10.563682256993513</v>
       </c>
-      <c r="R18" s="7">
-        <v>1174.6600000000001</v>
-      </c>
-      <c r="S18" s="10" t="s">
+      <c r="R18" s="3">
+        <v>587.33000000000004</v>
+      </c>
+      <c r="S18" s="9" t="s">
         <v>53</v>
       </c>
       <c r="T18" s="5">
         <f t="shared" si="6"/>
-        <v>10.406023992652967</v>
-      </c>
-      <c r="U18" s="7">
-        <v>1567.98</v>
-      </c>
-      <c r="V18" s="10" t="s">
+        <v>10.406181839054069</v>
+      </c>
+      <c r="U18" s="3">
+        <v>783.99</v>
+      </c>
+      <c r="V18" s="9" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -2088,74 +2091,74 @@
         <f t="shared" si="0"/>
         <v>10.715058806551699</v>
       </c>
-      <c r="C19" s="7">
-        <v>277.18</v>
-      </c>
-      <c r="D19" s="9" t="s">
+      <c r="C19" s="3">
+        <v>138.59</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>42</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" si="1"/>
-        <v>10.566015530941488</v>
-      </c>
-      <c r="F19" s="7">
-        <v>415.3</v>
-      </c>
-      <c r="G19" s="10" t="s">
+        <v>10.566656633758727</v>
+      </c>
+      <c r="F19" s="3">
+        <v>207.65</v>
+      </c>
+      <c r="G19" s="9" t="s">
         <v>23</v>
       </c>
       <c r="H19" s="5">
         <f t="shared" si="2"/>
-        <v>10.417230369608745</v>
-      </c>
-      <c r="I19" s="7">
-        <v>554.37</v>
-      </c>
-      <c r="J19" s="10" t="s">
+        <v>10.417418284147486</v>
+      </c>
+      <c r="I19" s="3">
+        <v>277.18</v>
+      </c>
+      <c r="J19" s="9" t="s">
         <v>31</v>
       </c>
       <c r="K19" s="5">
         <f t="shared" si="3"/>
-        <v>10.268317815105609</v>
-      </c>
-      <c r="L19" s="7">
-        <v>739.99</v>
-      </c>
-      <c r="M19" s="10" t="s">
+        <v>10.268456579907566</v>
+      </c>
+      <c r="L19" s="3">
+        <v>369.99</v>
+      </c>
+      <c r="M19" s="9" t="s">
         <v>32</v>
       </c>
       <c r="N19" s="5">
         <f t="shared" si="4"/>
-        <v>10.119764722556871</v>
-      </c>
-      <c r="O19" s="7">
-        <v>987.77</v>
-      </c>
-      <c r="P19" s="10" t="s">
+        <v>10.119867174212359</v>
+      </c>
+      <c r="O19" s="3">
+        <v>493.88</v>
+      </c>
+      <c r="P19" s="9" t="s">
         <v>50</v>
       </c>
       <c r="Q19" s="5">
         <f t="shared" si="5"/>
-        <v>9.9707796642855424</v>
-      </c>
-      <c r="R19" s="7">
-        <v>1244.51</v>
-      </c>
-      <c r="S19" s="10" t="s">
+        <v>9.9708597830454</v>
+      </c>
+      <c r="R19" s="3">
+        <v>622.25</v>
+      </c>
+      <c r="S19" s="9" t="s">
         <v>54</v>
       </c>
       <c r="T19" s="5">
         <f t="shared" si="6"/>
-        <v>9.8219606674612638</v>
-      </c>
-      <c r="U19" s="7">
-        <v>1661.22</v>
-      </c>
-      <c r="V19" s="10" t="s">
+        <v>9.8221096543504167</v>
+      </c>
+      <c r="U19" s="3">
+        <v>830.61</v>
+      </c>
+      <c r="V19" s="9" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -2163,374 +2166,374 @@
         <f t="shared" si="0"/>
         <v>10.113736974732683</v>
       </c>
-      <c r="C20" s="7">
-        <v>293.66000000000003</v>
-      </c>
-      <c r="D20" s="9" t="s">
+      <c r="C20" s="3">
+        <v>146.83000000000001</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" si="1"/>
-        <v>9.9728778409090904</v>
-      </c>
-      <c r="F20" s="7">
-        <v>440</v>
-      </c>
-      <c r="G20" s="10" t="s">
+        <v>9.9734829545454531</v>
+      </c>
+      <c r="F20" s="3">
+        <v>220</v>
+      </c>
+      <c r="G20" s="9" t="s">
         <v>30</v>
       </c>
       <c r="H20" s="5">
         <f t="shared" si="2"/>
-        <v>9.832632421296374</v>
-      </c>
-      <c r="I20" s="7">
-        <v>587.33000000000004</v>
-      </c>
-      <c r="J20" s="10" t="s">
+        <v>9.8327998365456644</v>
+      </c>
+      <c r="I20" s="3">
+        <v>293.66000000000003</v>
+      </c>
+      <c r="J20" s="9" t="s">
         <v>38</v>
       </c>
       <c r="K20" s="5">
         <f t="shared" si="3"/>
-        <v>9.6920273217770632</v>
-      </c>
-      <c r="L20" s="7">
-        <v>783.99</v>
-      </c>
-      <c r="M20" s="10" t="s">
+        <v>9.6919036989795924</v>
+      </c>
+      <c r="L20" s="3">
+        <v>392</v>
+      </c>
+      <c r="M20" s="9" t="s">
         <v>39</v>
       </c>
       <c r="N20" s="5">
         <f t="shared" si="4"/>
         <v>9.5518394648829439</v>
       </c>
-      <c r="O20" s="7">
-        <v>1046.5</v>
-      </c>
-      <c r="P20" s="10" t="s">
+      <c r="O20" s="3">
+        <v>523.25</v>
+      </c>
+      <c r="P20" s="9" t="s">
         <v>51</v>
       </c>
       <c r="Q20" s="5">
         <f t="shared" si="5"/>
-        <v>9.4111800441407354</v>
-      </c>
-      <c r="R20" s="7">
-        <v>1318.51</v>
-      </c>
-      <c r="S20" s="10" t="s">
+        <v>9.411251422070535</v>
+      </c>
+      <c r="R20" s="3">
+        <v>659.25</v>
+      </c>
+      <c r="S20" s="9" t="s">
         <v>55</v>
       </c>
       <c r="T20" s="5">
         <f t="shared" si="6"/>
-        <v>9.2707031250000007</v>
-      </c>
-      <c r="U20" s="7">
-        <v>1760</v>
-      </c>
-      <c r="V20" s="10" t="s">
+        <v>9.2708437499999992</v>
+      </c>
+      <c r="U20" s="3">
+        <v>880</v>
+      </c>
+      <c r="V20" s="9" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>18</v>
       </c>
       <c r="B21" s="5">
         <f t="shared" si="0"/>
-        <v>9.5458490020248767</v>
-      </c>
-      <c r="C21" s="7">
-        <v>311.13</v>
-      </c>
-      <c r="D21" s="9" t="s">
+        <v>9.5461558241193103</v>
+      </c>
+      <c r="C21" s="3">
+        <v>155.56</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" si="1"/>
-        <v>9.4132191736742747</v>
-      </c>
-      <c r="F21" s="7">
-        <v>466.16</v>
-      </c>
-      <c r="G21" s="10" t="s">
+        <v>9.4137903295005998</v>
+      </c>
+      <c r="F21" s="3">
+        <v>233.08</v>
+      </c>
+      <c r="G21" s="9" t="s">
         <v>37</v>
       </c>
       <c r="H21" s="5">
         <f t="shared" si="2"/>
-        <v>9.2808356769787057</v>
-      </c>
-      <c r="I21" s="7">
-        <v>622.25</v>
-      </c>
-      <c r="J21" s="10" t="s">
+        <v>9.2806865297464078</v>
+      </c>
+      <c r="I21" s="3">
+        <v>311.13</v>
+      </c>
+      <c r="J21" s="9" t="s">
         <v>44</v>
       </c>
       <c r="K21" s="5">
         <f t="shared" si="3"/>
-        <v>9.148038790768231</v>
-      </c>
-      <c r="L21" s="7">
-        <v>830.61</v>
-      </c>
-      <c r="M21" s="10" t="s">
+        <v>9.1481489284854316</v>
+      </c>
+      <c r="L21" s="3">
+        <v>415.3</v>
+      </c>
+      <c r="M21" s="9" t="s">
         <v>45</v>
       </c>
       <c r="N21" s="5">
         <f t="shared" si="4"/>
-        <v>9.0157206894374635</v>
-      </c>
-      <c r="O21" s="7">
-        <v>1108.73</v>
-      </c>
-      <c r="P21" s="10" t="s">
+        <v>9.0156393744250227</v>
+      </c>
+      <c r="O21" s="3">
+        <v>554.37</v>
+      </c>
+      <c r="P21" s="9" t="s">
         <v>52</v>
       </c>
       <c r="Q21" s="5">
         <f t="shared" si="5"/>
-        <v>8.8829881667394464</v>
-      </c>
-      <c r="R21" s="7">
-        <v>1396.91</v>
-      </c>
-      <c r="S21" s="10" t="s">
+        <v>8.8829245769263814</v>
+      </c>
+      <c r="R21" s="3">
+        <v>698.46</v>
+      </c>
+      <c r="S21" s="9" t="s">
         <v>56</v>
       </c>
       <c r="T21" s="5">
         <f t="shared" si="6"/>
-        <v>8.7503552926538877</v>
-      </c>
-      <c r="U21" s="7">
-        <v>1864.66</v>
-      </c>
-      <c r="V21" s="10" t="s">
+        <v>8.7504880246264722</v>
+      </c>
+      <c r="U21" s="3">
+        <v>932.33</v>
+      </c>
+      <c r="V21" s="9" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:22">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>19</v>
       </c>
       <c r="B22" s="5">
         <f t="shared" si="0"/>
-        <v>9.0101022358401845</v>
-      </c>
-      <c r="C22" s="7">
-        <v>329.63</v>
-      </c>
-      <c r="D22" s="9" t="s">
+        <v>9.0103755840058248</v>
+      </c>
+      <c r="C22" s="3">
+        <v>164.81</v>
+      </c>
+      <c r="D22" s="8" t="s">
         <v>29</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" si="1"/>
-        <v>8.8848834737183111</v>
-      </c>
-      <c r="F22" s="7">
-        <v>493.88</v>
-      </c>
-      <c r="G22" s="10" t="s">
+        <v>8.8854225722847655</v>
+      </c>
+      <c r="F22" s="3">
+        <v>246.94</v>
+      </c>
+      <c r="G22" s="9" t="s">
         <v>17</v>
       </c>
       <c r="H22" s="5">
         <f t="shared" si="2"/>
-        <v>8.7599544937428888</v>
-      </c>
-      <c r="I22" s="7">
-        <v>659.25</v>
-      </c>
-      <c r="J22" s="10" t="s">
+        <v>8.7598216181779573</v>
+      </c>
+      <c r="I22" s="3">
+        <v>329.63</v>
+      </c>
+      <c r="J22" s="9" t="s">
         <v>18</v>
       </c>
       <c r="K22" s="5">
         <f t="shared" si="3"/>
         <v>8.6346051136363648</v>
       </c>
-      <c r="L22" s="7">
-        <v>880</v>
-      </c>
-      <c r="M22" s="10" t="s">
+      <c r="L22" s="3">
+        <v>440</v>
+      </c>
+      <c r="M22" s="9" t="s">
         <v>47</v>
       </c>
       <c r="N22" s="5">
         <f t="shared" si="4"/>
         <v>8.509696422794681</v>
       </c>
-      <c r="O22" s="7">
-        <v>1174.6600000000001</v>
-      </c>
-      <c r="P22" s="10" t="s">
+      <c r="O22" s="3">
+        <v>587.33000000000004</v>
+      </c>
+      <c r="P22" s="9" t="s">
         <v>53</v>
       </c>
       <c r="Q22" s="5">
         <f t="shared" si="5"/>
         <v>8.3843937080230813</v>
       </c>
-      <c r="R22" s="7">
-        <v>1479.98</v>
-      </c>
-      <c r="S22" s="10" t="s">
+      <c r="R22" s="3">
+        <v>739.99</v>
+      </c>
+      <c r="S22" s="9" t="s">
         <v>57</v>
       </c>
       <c r="T22" s="5">
         <f t="shared" si="6"/>
-        <v>8.2592709298264264</v>
-      </c>
-      <c r="U22" s="7">
-        <v>1975.53</v>
-      </c>
-      <c r="V22" s="10" t="s">
+        <v>8.2593544043653893</v>
+      </c>
+      <c r="U22" s="3">
+        <v>987.77</v>
+      </c>
+      <c r="V22" s="9" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:22">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>20</v>
       </c>
       <c r="B23" s="5">
         <f t="shared" si="0"/>
-        <v>8.5044240185551061</v>
-      </c>
-      <c r="C23" s="7">
-        <v>349.23</v>
-      </c>
-      <c r="D23" s="9" t="s">
+        <v>8.504667544814156</v>
+      </c>
+      <c r="C23" s="3">
+        <v>174.61</v>
+      </c>
+      <c r="D23" s="8" t="s">
         <v>36</v>
       </c>
       <c r="E23" s="5">
         <f t="shared" si="1"/>
-        <v>8.3861753463927382</v>
-      </c>
-      <c r="F23" s="7">
-        <v>523.25</v>
-      </c>
-      <c r="G23" s="10" t="s">
+        <v>8.386523907808737</v>
+      </c>
+      <c r="F23" s="3">
+        <v>261.63</v>
+      </c>
+      <c r="G23" s="9" t="s">
         <v>24</v>
       </c>
       <c r="H23" s="5">
         <f t="shared" si="2"/>
         <v>8.2681900180396877</v>
       </c>
-      <c r="I23" s="7">
-        <v>698.46</v>
-      </c>
-      <c r="J23" s="10" t="s">
+      <c r="I23" s="3">
+        <v>349.23</v>
+      </c>
+      <c r="J23" s="9" t="s">
         <v>25</v>
       </c>
       <c r="K23" s="5">
         <f t="shared" si="3"/>
-        <v>8.1499603144809249</v>
-      </c>
-      <c r="L23" s="7">
-        <v>932.33</v>
-      </c>
-      <c r="M23" s="10" t="s">
+        <v>8.1500477303929983</v>
+      </c>
+      <c r="L23" s="3">
+        <v>466.16</v>
+      </c>
+      <c r="M23" s="9" t="s">
         <v>49</v>
       </c>
       <c r="N23" s="5">
         <f t="shared" si="4"/>
-        <v>8.0320768816642687</v>
-      </c>
-      <c r="O23" s="7">
-        <v>1244.51</v>
-      </c>
-      <c r="P23" s="10" t="s">
+        <v>8.0321414222579346</v>
+      </c>
+      <c r="O23" s="3">
+        <v>622.25</v>
+      </c>
+      <c r="P23" s="9" t="s">
         <v>54</v>
       </c>
       <c r="Q23" s="5">
         <f t="shared" si="5"/>
         <v>7.9138349978953819</v>
       </c>
-      <c r="R23" s="7">
-        <v>1567.98</v>
-      </c>
-      <c r="S23" s="10" t="s">
+      <c r="R23" s="3">
+        <v>783.99</v>
+      </c>
+      <c r="S23" s="9" t="s">
         <v>58</v>
       </c>
       <c r="T23" s="5">
         <f t="shared" si="6"/>
-        <v>7.7957178690874347</v>
-      </c>
-      <c r="U23" s="7">
-        <v>2093</v>
-      </c>
-      <c r="V23" s="10" t="s">
+        <v>7.7958361204013373</v>
+      </c>
+      <c r="U23" s="3">
+        <v>1046.5</v>
+      </c>
+      <c r="V23" s="9" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:22">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>21</v>
       </c>
       <c r="B24" s="5">
         <f t="shared" si="0"/>
-        <v>8.0272439795670145</v>
-      </c>
-      <c r="C24" s="7">
-        <v>369.99</v>
-      </c>
-      <c r="D24" s="9" t="s">
+        <v>8.0270270270270263</v>
+      </c>
+      <c r="C24" s="3">
+        <v>185</v>
+      </c>
+      <c r="D24" s="8" t="s">
         <v>43</v>
       </c>
       <c r="E24" s="5">
         <f t="shared" si="1"/>
-        <v>7.9154107365117161</v>
-      </c>
-      <c r="F24" s="7">
-        <v>554.37</v>
-      </c>
-      <c r="G24" s="10" t="s">
+        <v>7.9160338047478165</v>
+      </c>
+      <c r="F24" s="3">
+        <v>277.18</v>
+      </c>
+      <c r="G24" s="9" t="s">
         <v>31</v>
       </c>
       <c r="H24" s="5">
         <f t="shared" si="2"/>
-        <v>7.8041595156691308</v>
-      </c>
-      <c r="I24" s="7">
-        <v>739.99</v>
-      </c>
-      <c r="J24" s="10" t="s">
+        <v>7.8042649801345982</v>
+      </c>
+      <c r="I24" s="3">
+        <v>369.99</v>
+      </c>
+      <c r="J24" s="9" t="s">
         <v>32</v>
       </c>
       <c r="K24" s="5">
         <f t="shared" si="3"/>
-        <v>7.6925321684197741</v>
-      </c>
-      <c r="L24" s="7">
-        <v>987.77</v>
-      </c>
-      <c r="M24" s="10" t="s">
+        <v>7.6926100469749743</v>
+      </c>
+      <c r="L24" s="3">
+        <v>493.88</v>
+      </c>
+      <c r="M24" s="9" t="s">
         <v>50</v>
       </c>
       <c r="N24" s="5">
         <f t="shared" si="4"/>
-        <v>7.5812849352678402</v>
-      </c>
-      <c r="O24" s="7">
-        <v>1318.51</v>
-      </c>
-      <c r="P24" s="10" t="s">
+        <v>7.5813424345847551</v>
+      </c>
+      <c r="O24" s="3">
+        <v>659.25</v>
+      </c>
+      <c r="P24" s="9" t="s">
         <v>55</v>
       </c>
       <c r="Q24" s="5">
         <f t="shared" si="5"/>
         <v>7.4696518221548018</v>
       </c>
-      <c r="R24" s="7">
-        <v>1661.22</v>
-      </c>
-      <c r="S24" s="10" t="s">
+      <c r="R24" s="3">
+        <v>830.61</v>
+      </c>
+      <c r="S24" s="9" t="s">
         <v>59</v>
       </c>
       <c r="T24" s="5">
         <f t="shared" si="6"/>
-        <v>7.358165423502566</v>
-      </c>
-      <c r="U24" s="7">
-        <v>2217.46</v>
-      </c>
-      <c r="V24" s="10" t="s">
+        <v>7.3582770376917734</v>
+      </c>
+      <c r="U24" s="3">
+        <v>1108.73</v>
+      </c>
+      <c r="V24" s="9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:22">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -2538,74 +2541,74 @@
         <f t="shared" si="0"/>
         <v>7.5765306122448983</v>
       </c>
-      <c r="C25" s="7">
-        <v>392</v>
-      </c>
-      <c r="D25" s="9" t="s">
+      <c r="C25" s="3">
+        <v>196</v>
+      </c>
+      <c r="D25" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E25" s="5">
         <f t="shared" si="1"/>
-        <v>7.4712108184495936</v>
-      </c>
-      <c r="F25" s="7">
-        <v>587.33000000000004</v>
-      </c>
-      <c r="G25" s="10" t="s">
+        <v>7.4717913573520383</v>
+      </c>
+      <c r="F25" s="3">
+        <v>293.66000000000003</v>
+      </c>
+      <c r="G25" s="9" t="s">
         <v>38</v>
       </c>
       <c r="H25" s="5">
         <f t="shared" si="2"/>
-        <v>7.366165384762561</v>
-      </c>
-      <c r="I25" s="7">
-        <v>783.99</v>
-      </c>
-      <c r="J25" s="10" t="s">
+        <v>7.3660714285714288</v>
+      </c>
+      <c r="I25" s="3">
+        <v>392</v>
+      </c>
+      <c r="J25" s="9" t="s">
         <v>39</v>
       </c>
       <c r="K25" s="5">
         <f t="shared" si="3"/>
         <v>7.2608241758241761</v>
       </c>
-      <c r="L25" s="7">
-        <v>1046.5</v>
-      </c>
-      <c r="M25" s="10" t="s">
+      <c r="L25" s="3">
+        <v>523.25</v>
+      </c>
+      <c r="M25" s="9" t="s">
         <v>51</v>
       </c>
       <c r="N25" s="5">
         <f t="shared" si="4"/>
-        <v>7.1557938593037482</v>
-      </c>
-      <c r="O25" s="7">
-        <v>1396.91</v>
-      </c>
-      <c r="P25" s="10" t="s">
+        <v>7.1557426337943468</v>
+      </c>
+      <c r="O25" s="3">
+        <v>698.46</v>
+      </c>
+      <c r="P25" s="9" t="s">
         <v>56</v>
       </c>
       <c r="Q25" s="5">
         <f t="shared" si="5"/>
         <v>7.0504176136363643</v>
       </c>
-      <c r="R25" s="7">
-        <v>1760</v>
-      </c>
-      <c r="S25" s="10" t="s">
+      <c r="R25" s="3">
+        <v>880</v>
+      </c>
+      <c r="S25" s="9" t="s">
         <v>60</v>
       </c>
       <c r="T25" s="5">
         <f t="shared" si="6"/>
-        <v>6.9451745611496092</v>
-      </c>
-      <c r="U25" s="7">
-        <v>2349.3200000000002</v>
-      </c>
-      <c r="V25" s="10" t="s">
+        <v>6.9452799107826939</v>
+      </c>
+      <c r="U25" s="3">
+        <v>1174.6600000000001</v>
+      </c>
+      <c r="V25" s="9" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:22">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -2613,74 +2616,74 @@
         <f t="shared" si="0"/>
         <v>7.1514567782326024</v>
       </c>
-      <c r="C26" s="7">
-        <v>415.3</v>
-      </c>
-      <c r="D26" s="9" t="s">
+      <c r="C26" s="3">
+        <v>207.65</v>
+      </c>
+      <c r="D26" s="8" t="s">
         <v>23</v>
       </c>
       <c r="E26" s="5">
         <f t="shared" si="1"/>
-        <v>7.0519345118521493</v>
-      </c>
-      <c r="F26" s="7">
-        <v>622.25</v>
-      </c>
-      <c r="G26" s="10" t="s">
+        <v>7.0522490598785064</v>
+      </c>
+      <c r="F26" s="3">
+        <v>311.13</v>
+      </c>
+      <c r="G26" s="9" t="s">
         <v>44</v>
       </c>
       <c r="H26" s="5">
         <f t="shared" si="2"/>
-        <v>6.9527214938418753</v>
-      </c>
-      <c r="I26" s="7">
-        <v>830.61</v>
-      </c>
-      <c r="J26" s="10" t="s">
+        <v>6.9528052010594745</v>
+      </c>
+      <c r="I26" s="3">
+        <v>415.3</v>
+      </c>
+      <c r="J26" s="9" t="s">
         <v>45</v>
       </c>
       <c r="K26" s="5">
         <f t="shared" si="3"/>
-        <v>6.8532938587392787</v>
-      </c>
-      <c r="L26" s="7">
-        <v>1108.73</v>
-      </c>
-      <c r="M26" s="10" t="s">
+        <v>6.8532320471887012</v>
+      </c>
+      <c r="L26" s="3">
+        <v>554.37</v>
+      </c>
+      <c r="M26" s="9" t="s">
         <v>52</v>
       </c>
       <c r="N26" s="5">
         <f t="shared" si="4"/>
         <v>6.7541453262881932</v>
       </c>
-      <c r="O26" s="7">
-        <v>1479.98</v>
-      </c>
-      <c r="P26" s="10" t="s">
+      <c r="O26" s="3">
+        <v>739.99</v>
+      </c>
+      <c r="P26" s="9" t="s">
         <v>57</v>
       </c>
       <c r="Q26" s="5">
         <f t="shared" si="5"/>
         <v>6.6546903993221287</v>
       </c>
-      <c r="R26" s="7">
-        <v>1864.66</v>
-      </c>
-      <c r="S26" s="10" t="s">
+      <c r="R26" s="3">
+        <v>932.33</v>
+      </c>
+      <c r="S26" s="9" t="s">
         <v>61</v>
       </c>
       <c r="T26" s="5">
         <f t="shared" si="6"/>
-        <v>6.5553661682107816</v>
-      </c>
-      <c r="U26" s="7">
-        <v>2489.02</v>
-      </c>
-      <c r="V26" s="10" t="s">
+        <v>6.5554656049368827</v>
+      </c>
+      <c r="U26" s="3">
+        <v>1244.51</v>
+      </c>
+      <c r="V26" s="9" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:22">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -2688,70 +2691,70 @@
         <f t="shared" si="0"/>
         <v>6.75</v>
       </c>
-      <c r="C27" s="7">
-        <v>440</v>
-      </c>
-      <c r="D27" s="9" t="s">
+      <c r="C27" s="3">
+        <v>220</v>
+      </c>
+      <c r="D27" s="8" t="s">
         <v>30</v>
       </c>
       <c r="E27" s="5">
         <f t="shared" si="1"/>
-        <v>6.6561490329920359</v>
-      </c>
-      <c r="F27" s="7">
-        <v>659.25</v>
-      </c>
-      <c r="G27" s="10" t="s">
+        <v>6.656451930952886</v>
+      </c>
+      <c r="F27" s="3">
+        <v>329.63</v>
+      </c>
+      <c r="G27" s="9" t="s">
         <v>18</v>
       </c>
       <c r="H27" s="5">
         <f t="shared" si="2"/>
         <v>6.5625</v>
       </c>
-      <c r="I27" s="7">
-        <v>880</v>
-      </c>
-      <c r="J27" s="10" t="s">
+      <c r="I27" s="3">
+        <v>440</v>
+      </c>
+      <c r="J27" s="9" t="s">
         <v>47</v>
       </c>
       <c r="K27" s="5">
         <f t="shared" si="3"/>
         <v>6.4686398617472287</v>
       </c>
-      <c r="L27" s="7">
-        <v>1174.6600000000001</v>
-      </c>
-      <c r="M27" s="10" t="s">
+      <c r="L27" s="3">
+        <v>587.33000000000004</v>
+      </c>
+      <c r="M27" s="9" t="s">
         <v>53</v>
       </c>
       <c r="N27" s="5">
         <f t="shared" si="4"/>
         <v>6.3750813148126886</v>
       </c>
-      <c r="O27" s="7">
-        <v>1567.98</v>
-      </c>
-      <c r="P27" s="10" t="s">
+      <c r="O27" s="3">
+        <v>783.99</v>
+      </c>
+      <c r="P27" s="9" t="s">
         <v>58</v>
       </c>
       <c r="Q27" s="5">
         <f t="shared" si="5"/>
-        <v>6.2812182047349321</v>
-      </c>
-      <c r="R27" s="7">
-        <v>1975.53</v>
-      </c>
-      <c r="S27" s="10" t="s">
+        <v>6.2811864097917534</v>
+      </c>
+      <c r="R27" s="3">
+        <v>987.77</v>
+      </c>
+      <c r="S27" s="9" t="s">
         <v>62</v>
       </c>
       <c r="T27" s="5">
         <f t="shared" si="6"/>
-        <v>6.1874530720282745</v>
-      </c>
-      <c r="U27" s="7">
-        <v>2637.02</v>
-      </c>
-      <c r="V27" s="10" t="s">
+        <v>6.1875469279717255</v>
+      </c>
+      <c r="U27" s="3">
+        <v>1318.51</v>
+      </c>
+      <c r="V27" s="9" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2773,654 +2776,670 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3C5C1AA-4ECE-455D-A371-86029C17DF0C}">
-  <dimension ref="A1:B80"/>
+  <dimension ref="A1:B82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="3">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="3">
+        <v>25.96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="3">
+      <c r="B3" s="3">
         <v>27.5</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B4" s="3">
         <v>29.14</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B5" s="3">
         <v>30.87</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B6" s="3">
         <v>32.700000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B7" s="3">
         <v>34.65</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B8" s="3">
         <v>36.71</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B9" s="3">
         <v>38.89</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B10" s="3">
         <v>41.2</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B11" s="3">
         <v>43.65</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B12" s="3">
         <v>46.25</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B13" s="3">
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B14" s="3">
         <v>51.91</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="11" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B15" s="3">
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="11" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B16" s="3">
         <v>58.27</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="11" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B17" s="3">
         <v>61.74</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="11" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B18" s="3">
         <v>65.41</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="11" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B19" s="3">
         <v>69.3</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="11" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B20" s="3">
         <v>73.42</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="11" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B21" s="3">
         <v>77.78</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="11" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B22" s="3">
         <v>82.41</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="11" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B23" s="3">
         <v>87.31</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="11" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B24" s="3">
         <v>92.5</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="11" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B25" s="3">
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="11" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B26" s="3">
         <v>103.83</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="11" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B27" s="3">
         <v>110</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="11" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B28" s="3">
         <v>116.54</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="11" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B29" s="3">
         <v>123.47</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="11" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B30" s="3">
         <v>130.81</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="11" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B31" s="3">
         <v>138.59</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="11" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B32" s="3">
         <v>146.83000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="11" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B33" s="3">
         <v>155.56</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="11" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B34" s="3">
         <v>164.81</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="11" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B35" s="3">
         <v>174.61</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="11" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B36" s="3">
         <v>185</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="11" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B37" s="3">
         <v>196</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="11" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B38" s="3">
         <v>207.65</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="11" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B39" s="3">
         <v>220</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="1" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B40" s="3">
         <v>233.08</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="1" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B41" s="3">
         <v>246.94</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="1" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B42" s="3">
         <v>261.63</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="1" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B43" s="3">
         <v>277.18</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="1" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B44" s="3">
         <v>293.66000000000003</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="1" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B45" s="3">
         <v>311.13</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="1" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B46" s="3">
         <v>329.63</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="1" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B47" s="3">
         <v>349.23</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="1" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B48" s="3">
         <v>369.99</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="1" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B49" s="3">
         <v>392</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="1" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B50" s="3">
         <v>415.3</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="1" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B49" s="3">
+      <c r="B51" s="3">
         <v>440</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="1" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B50" s="3">
+      <c r="B52" s="3">
         <v>466.16</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="1" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B51" s="3">
+      <c r="B53" s="3">
         <v>493.88</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="1" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B52" s="3">
+      <c r="B54" s="3">
         <v>523.25</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="1" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B53" s="3">
+      <c r="B55" s="3">
         <v>554.37</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="1" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B54" s="3">
+      <c r="B56" s="3">
         <v>587.33000000000004</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="1" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B55" s="3">
+      <c r="B57" s="3">
         <v>622.25</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="1" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B56" s="3">
+      <c r="B58" s="3">
         <v>659.25</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="1" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B57" s="3">
+      <c r="B59" s="3">
         <v>698.46</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="1" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B58" s="3">
+      <c r="B60" s="3">
         <v>739.99</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="1" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B59" s="3">
+      <c r="B61" s="3">
         <v>783.99</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="1" t="s">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B60" s="3">
+      <c r="B62" s="3">
         <v>830.61</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="1" t="s">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B61" s="3">
+      <c r="B63" s="3">
         <v>880</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="1" t="s">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B62" s="3">
+      <c r="B64" s="3">
         <v>932.33</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="1" t="s">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B63" s="3">
+      <c r="B65" s="3">
         <v>987.77</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="1" t="s">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B64" s="3">
+      <c r="B66" s="3">
         <v>1046.5</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="1" t="s">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B65" s="3">
+      <c r="B67" s="3">
         <v>1108.73</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="1" t="s">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B66" s="3">
+      <c r="B68" s="3">
         <v>1174.6600000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="1" t="s">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B67" s="3">
+      <c r="B69" s="3">
         <v>1244.51</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="1" t="s">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B68" s="3">
+      <c r="B70" s="3">
         <v>1318.51</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="1" t="s">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B69" s="3">
+      <c r="B71" s="3">
         <v>1396.91</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="1" t="s">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B70" s="3">
+      <c r="B72" s="3">
         <v>1479.98</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="1" t="s">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B71" s="3">
+      <c r="B73" s="3">
         <v>1567.98</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="1" t="s">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B72" s="3">
+      <c r="B74" s="3">
         <v>1661.22</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="1" t="s">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B73" s="3">
+      <c r="B75" s="3">
         <v>1760</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="1" t="s">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B74" s="3">
+      <c r="B76" s="3">
         <v>1864.66</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="1" t="s">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B75" s="3">
+      <c r="B77" s="3">
         <v>1975.53</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="1" t="s">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B76" s="3">
+      <c r="B78" s="3">
         <v>2093</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="1" t="s">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B77" s="3">
+      <c r="B79" s="3">
         <v>2217.46</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="1" t="s">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B78" s="3">
+      <c r="B80" s="3">
         <v>2349.3200000000002</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="1" t="s">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B79" s="3">
+      <c r="B81" s="3">
         <v>2489.02</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="1" t="s">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B80" s="3">
+      <c r="B82" s="3">
         <v>2637.02</v>
       </c>
     </row>
@@ -3431,23 +3450,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="a4efdaf9-7285-4f4d-a0c3-fdbed3c18d5a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100484A3243A993BB41A902AE169ED26823" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c7270b093ba49f2dffdd47fd5e3aace1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="a4efdaf9-7285-4f4d-a0c3-fdbed3c18d5a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1e649017ec7c63fa04ee84453faa18b0" ns3:_="">
     <xsd:import namespace="a4efdaf9-7285-4f4d-a0c3-fdbed3c18d5a"/>
@@ -3635,14 +3637,55 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="a4efdaf9-7285-4f4d-a0c3-fdbed3c18d5a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3F9D0B2-9A61-4127-AB10-90F06B1123F0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12B9AF9B-C57F-44AC-98BE-C18CC7B79D02}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="a4efdaf9-7285-4f4d-a0c3-fdbed3c18d5a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C4CF664-C129-4CEB-833D-7AB57D719D6C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C4CF664-C129-4CEB-833D-7AB57D719D6C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12B9AF9B-C57F-44AC-98BE-C18CC7B79D02}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3F9D0B2-9A61-4127-AB10-90F06B1123F0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a4efdaf9-7285-4f4d-a0c3-fdbed3c18d5a"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>